--- a/highlighted_pathways.xlsx
+++ b/highlighted_pathways.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,56 +465,56 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.015205239286512e-13</v>
+        <v>5.558218211829239e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.025758695392821e-10</v>
+        <v>4.921079877004785e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>2.04263889839701e-06</v>
+        <v>6.12430386631518e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KEGG_2021_Human: TGF-beta signaling pathway</t>
+          <t>KEGG_2021_Human: Focal adhesion</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.677861462596692e-06</v>
+        <v>1.984119224391844e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002387797792735641</v>
+        <v>2.697146656837494e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003626960498298101</v>
+        <v>4.272537005773376e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KEGG_2021_Human: Focal adhesion</t>
+          <t>KEGG_2021_Human: TGF-beta signaling pathway</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.699148731386096e-05</v>
+        <v>2.140821594454763e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>5.367200473912094e-06</v>
+        <v>0.002296359605154307</v>
       </c>
       <c r="E4" t="n">
-        <v>1.138931858624924e-05</v>
+        <v>0.002229718270090995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.218035379458973e-07</v>
+        <v>9.247551505658709e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>1.15993595903102e-09</v>
+        <v>1.845273399229044e-11</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -535,18 +535,18 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GO_Biological_Process_2021: actin cytoskeleton reorganization (GO:0031532)</t>
+          <t>KEGG_2021_Human: Tight junction</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.03803441455585772</v>
+        <v>0.0003439937129393427</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02716403528098153</v>
+        <v>6.580526896332986e-05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -556,18 +556,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KEGG_2021_Human: Regulation of actin cytoskeleton</t>
+          <t>KEGG_2021_Human: Adherens junction</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.444903482214075e-07</v>
+        <v>6.077939248200902e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>1.832001460167128e-07</v>
+        <v>0.0001202543103596818</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -577,18 +577,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KEGG_2021_Human: Adherens junction</t>
+          <t>KEGG_2021_Human: Regulation of actin cytoskeleton</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.79963770047102e-07</v>
+        <v>7.658662304895348e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>1.183298959265066e-05</v>
+        <v>8.427888745314609e-07</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0001885907657613065</v>
+        <v>0.002141708366094922</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004962910753507746</v>
+        <v>0.0004380982536883778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -619,18 +619,20 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KEGG_2021_Human: Tight junction</t>
+          <t>GO_Biological_Process_2021: actin cytoskeleton reorganization (GO:0031532)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002010536713260259</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.610597307012566e-05</v>
+        <v>0.01926694733395609</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -640,7 +642,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -658,12 +660,12 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.462099768381588e-20</v>
+        <v>5.017322667628349e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -681,12 +683,12 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.402940512646506e-21</v>
+        <v>3.119685457737965e-21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -704,12 +706,12 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.402940512646506e-21</v>
+        <v>3.119685457737965e-21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -727,16 +729,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.773338359751009e-08</v>
+        <v>2.790153639676453e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>810</v>
+        <v>574</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GO_Biological_Process_2021: collagen fibril organization (GO:0030199)</t>
+          <t>GO_Cellular_Component_2018: actin cytoskeleton (GO:0015629)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -744,22 +746,22 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>8.715051273715801e-19</v>
+      <c r="D15" t="n">
+        <v>2.577279555364868e-05</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>895</v>
+        <v>826</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GO_Cellular_Component_2018: stress fiber (GO:0001725)</t>
+          <t>GO_Biological_Process_2021: collagen fibril organization (GO:0030199)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -767,22 +769,22 @@
           <t>ns</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0.007220940681915929</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ns</t>
-        </is>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.099185615104196e-19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GO_Cellular_Component_2018: actin cytoskeleton (GO:0015629)</t>
+          <t>GO_Cellular_Component_2018: stress fiber (GO:0001725)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -791,7 +793,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0002685275386434027</v>
+        <v>0.0045252846192715</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
